--- a/_doc/受保護樹木養護資料蒐集用表格.xlsx
+++ b/_doc/受保護樹木養護資料蒐集用表格.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\樹保\樹保114\protectTreesV2\_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ift\Desktop\專案\web\樹保v2_web\protectTreesV2\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA83EC7-FAA8-45A6-B59B-DD9700CF4436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="662" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="662"/>
   </bookViews>
   <sheets>
     <sheet name="欄位說明" sheetId="9" r:id="rId1"/>
@@ -264,10 +263,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有石塊或廢棄物推積</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>土壤壓實</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -321,13 +316,17 @@
   </si>
   <si>
     <t>安全衛生防護</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有石塊或廢棄物堆積</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -668,6 +667,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,20 +688,14 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 3" xfId="2"/>
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1014,13 +1013,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1075,13 +1074,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1322,7 +1321,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"有, 沒有, 毀損"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1332,14 +1331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1351,65 +1350,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="40" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="40" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="40" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="42"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="44"/>
     </row>
     <row r="2" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
@@ -1486,31 +1485,31 @@
         <v>53</v>
       </c>
       <c r="AC2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="AG2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AH2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="AL2" s="8" t="s">
         <v>42</v>
@@ -1544,48 +1543,48 @@
       <c r="I3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
       <c r="Y3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="43" t="s">
+      <c r="Z3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
       <c r="AF3" s="37"/>
       <c r="AG3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="43" t="s">
+      <c r="AH3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
       <c r="AL3" s="36" t="s">
         <v>32</v>
       </c>
@@ -2192,11 +2191,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="J3:Q3"/>
@@ -2204,6 +2198,11 @@
     <mergeCell ref="S3:X3"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="AH1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2212,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2241,19 +2240,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -2266,13 +2265,13 @@
       <c r="C2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -2430,7 +2429,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H17" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H17">
       <formula1>"有, 沒有"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_doc/受保護樹木養護資料蒐集用表格.xlsx
+++ b/_doc/受保護樹木養護資料蒐集用表格.xlsx
@@ -546,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,9 +568,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -607,12 +604,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -622,9 +613,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,9 +628,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,28 +652,64 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,49 +1041,49 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1084,247 +1105,242 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="20.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.9140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="9" customWidth="1"/>
+    <col min="2" max="3" width="20.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.9140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="9" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="29" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" s="25" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="19"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="1"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="19"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="1"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="1"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="1"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="1"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="1"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="1"/>
       <c r="I17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
-      <formula1>"有, 沒有, 毀損"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1337,860 +1353,865 @@
   </sheetPr>
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.9140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="38" width="8.58203125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.9140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="38" width="8.58203125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="42" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="42" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="42" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="42" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="44"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="50"/>
     </row>
     <row r="2" spans="1:38" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="S3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="36" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="45" t="s">
+      <c r="Z3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="36" t="s">
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="45" t="s">
+      <c r="AH3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="36" t="s">
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="J3:Q3"/>
@@ -2198,13 +2219,13 @@
     <mergeCell ref="S3:X3"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="AH1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 G3:G1048576 H3:H1048576 J3:Q1048576 S3:X1048576 Z3:AF1048576 AH3:AK1048576 D3:D1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
@@ -2218,221 +2239,216 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.9140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="35" customWidth="1"/>
-    <col min="4" max="8" width="10.58203125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.9140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="30" customWidth="1"/>
+    <col min="4" max="8" width="10.58203125" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="38" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H17">
-      <formula1>"有, 沒有"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
